--- a/tables/chosen_transitions.xlsx
+++ b/tables/chosen_transitions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t xml:space="preserve">Source</t>
   </si>
@@ -43,6 +43,12 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">Project-code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI</t>
+  </si>
+  <si>
     <t xml:space="preserve">G008.67</t>
   </si>
   <si>
@@ -64,6 +70,12 @@
     <t xml:space="preserve">Only one available</t>
   </si>
   <si>
+    <t xml:space="preserve">2017.1.00914.S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csengeri, Timea</t>
+  </si>
+  <si>
     <t xml:space="preserve">G351.77</t>
   </si>
   <si>
@@ -79,15 +91,15 @@
     <t xml:space="preserve">ALMA-Imf</t>
   </si>
   <si>
-    <t xml:space="preserve">There are more likely regions but I chose the ones that are elongated and do not overlap a lot</t>
-  </si>
-  <si>
     <t xml:space="preserve">member.uid___A001_X122_Xc8.CO.source3.image.pbcor_archive_CO32_res0.7.fits</t>
   </si>
   <si>
     <t xml:space="preserve">Chose resolution closest to alma-imf, instead of 3.5’'</t>
   </si>
   <si>
+    <t xml:space="preserve">2013.1.00960.S</t>
+  </si>
+  <si>
     <t xml:space="preserve">member.uid___A001_X13e_Xc0.G351.77-0.54.CO6-5.image.pbcor.fits</t>
   </si>
   <si>
@@ -97,6 +109,12 @@
     <t xml:space="preserve">not detected?</t>
   </si>
   <si>
+    <t xml:space="preserve">2013.1.00260.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beuther, Henrik</t>
+  </si>
+  <si>
     <t xml:space="preserve">G328.25</t>
   </si>
   <si>
@@ -112,6 +130,9 @@
     <t xml:space="preserve">member.uid___A001_x005F_X133d_X3488._G328.2551-0.5321_A__sci.spw27.cube.I.pbcor_CO32_res0.354.fits</t>
   </si>
   <si>
+    <t xml:space="preserve">2018.1.01679.S </t>
+  </si>
+  <si>
     <t xml:space="preserve">G337.92</t>
   </si>
   <si>
@@ -125,6 +146,30 @@
   </si>
   <si>
     <t xml:space="preserve">member.uid___A001_x005F_X12a2_X225._G337.9154-0.4773__sci.spw27.cube.I.pbcor_archive_CO32_res0.459.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longmore, Steven and many others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G338.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G338.93_B6_spw5_12M_spw5.JvM.image.pbcor.statcont.contsub.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56 X 0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,6,7, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X12a2_X225._G338.9188p0.5494__sci.spw27.cube.I.pbcor_archive_co32_res0.458.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,6,7,11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,6 not really elongated, 11 not 100% covered</t>
   </si>
 </sst>
 </file>
@@ -158,12 +203,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,13 +251,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -218,6 +281,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFF7D1D5"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -398,10 +521,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,35 +532,44 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
@@ -446,22 +578,20 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="n">
         <v>3</v>
       </c>
@@ -469,116 +599,132 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>3.334</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0.658</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0.067</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>28</v>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.354</v>
@@ -586,47 +732,112 @@
       <c r="F10" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>31</v>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>0.459</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
+        <v>40</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/tables/chosen_transitions.xlsx
+++ b/tables/chosen_transitions.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="High mass" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Low_Mass" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Low mass tussendoor" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="177">
   <si>
     <t xml:space="preserve">Source</t>
   </si>
@@ -49,6 +51,12 @@
     <t xml:space="preserve">PI</t>
   </si>
   <si>
+    <t xml:space="preserve">Vlsr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source Vlsr</t>
+  </si>
+  <si>
     <t xml:space="preserve">G008.67</t>
   </si>
   <si>
@@ -61,15 +69,15 @@
     <t xml:space="preserve">1,2,3</t>
   </si>
   <si>
-    <t xml:space="preserve">ALMA_IMF</t>
+    <t xml:space="preserve">Cube looks good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper I</t>
   </si>
   <si>
     <t xml:space="preserve">member.uid___A001_x005F_X12a2_X23b._G008.6702-0.3557__sci.spw18.cube.I.pbcor_archive_CO32_res3.334.fits</t>
   </si>
   <si>
-    <t xml:space="preserve">Only one available</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017.1.00914.S </t>
   </si>
   <si>
@@ -88,13 +96,13 @@
     <t xml:space="preserve">3,8</t>
   </si>
   <si>
-    <t xml:space="preserve">ALMA-Imf</t>
+    <t xml:space="preserve">Seems like there is a weird artifact in the middle, but contsub seems ok</t>
   </si>
   <si>
     <t xml:space="preserve">member.uid___A001_X122_Xc8.CO.source3.image.pbcor_archive_CO32_res0.7.fits</t>
   </si>
   <si>
-    <t xml:space="preserve">Chose resolution closest to alma-imf, instead of 3.5’'</t>
+    <t xml:space="preserve">Does not seem to be cleaned correctly, also don’t trust contsub</t>
   </si>
   <si>
     <t xml:space="preserve">2013.1.00960.S</t>
@@ -106,7 +114,7 @@
     <t xml:space="preserve">part of 3,8</t>
   </si>
   <si>
-    <t xml:space="preserve">not detected?</t>
+    <t xml:space="preserve">Seems mostly noise, don’t trust contsub either</t>
   </si>
   <si>
     <t xml:space="preserve">2013.1.00260.S</t>
@@ -124,12 +132,12 @@
     <t xml:space="preserve">0.62 X 0.47</t>
   </si>
   <si>
-    <t xml:space="preserve">ALMA-IMF</t>
-  </si>
-  <si>
     <t xml:space="preserve">member.uid___A001_x005F_X133d_X3488._G328.2551-0.5321_A__sci.spw27.cube.I.pbcor_CO32_res0.354.fits</t>
   </si>
   <si>
+    <t xml:space="preserve">Cube looks ok, middle source is overcrowded with lines, contsub ok</t>
+  </si>
+  <si>
     <t xml:space="preserve">2018.1.01679.S </t>
   </si>
   <si>
@@ -148,6 +156,9 @@
     <t xml:space="preserve">member.uid___A001_x005F_X12a2_X225._G337.9154-0.4773__sci.spw27.cube.I.pbcor_archive_CO32_res0.459.fits</t>
   </si>
   <si>
+    <t xml:space="preserve">Cube looks good, source in middle overcrowded with lines</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longmore, Steven and many others</t>
   </si>
   <si>
@@ -169,7 +180,379 @@
     <t xml:space="preserve">5,6,7,11</t>
   </si>
   <si>
-    <t xml:space="preserve">5,6 not really elongated, 11 not 100% covered</t>
+    <t xml:space="preserve">wienen et al. 2015?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes on outflows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative source name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:26:44.100 -24:34:48.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162644-24345_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013.1.00187.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vd Marel et al. 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wl 12, GY111, 162644-24345, J162644.-2434481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_12_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.1.01792.S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_12_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022.1.00236.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:02.300 -24:37:27.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_16_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK the velocity!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 km/s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carr et al. 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WL 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_16_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:15.800 -24:38:43.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_21_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triple system, see Sullivan et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0 plusmin 0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sullivan et al. 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wl 20E denk ik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://simbad.u-strasbg.fr/simbad/sim-id?Ident=WL%2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_21_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022.1.00236.S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:21.400 -24:41:43.000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_23_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simbad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YLW 13B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://simbad.u-strasbg.fr/simbad/sim-id?Ident=YLW%2013B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_23_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:26.900 -24:40:50.000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162727-24405_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irs_43, 162727-24405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_26_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_26_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:27.900 -24:39:33.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162728-24393_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013.1.00187.S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS_44, 162728-24393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_27_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_27_sci.spw30.cube.I.pbcor_CO43.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:30.100 -24:27:43.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162729-24274_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik DENK Elias 33, coordinaten komen wel ong overeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_29_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_29_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:39.900 -24:43:13.200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162740-24431_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS51&gt; not in vd Marel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_31_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YWL 45 DENK IK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://simbad.u-strasbg.fr/simbad/sim-id?Ident=YLW+45&amp;NbIdent=1&amp;Radius=2&amp;Radius.unit=arcmin&amp;submit=submit+id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_31_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:31:35.600 -24:01:29.000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.163136-24013_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_34_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.1.01792.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X133d_X3322.IRS_63_sci.spw25.cube.I.pbcor_CO32_res0.7arcsec.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different res from the others, here 1-0 is limiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018.1.01634.S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:32:00.900 -24:56:42.000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.163201-24564_sci.spw0_115262MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41 plusmin 0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortiz-Leon et al. 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WLY 2-67 denk ik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_39_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serpens:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser-emb 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heeft 2-1 available, ook band 7 maar daar zit geen 3-2 frequency bij. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:28:54.050 +00:29:30.012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dus nope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serpens_couth_C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heeft 2-1, 3-2 en partly 4-3 (al is die deels weggevallen). Coordinate search geeft ook verschillende resoluties per CO line dus deze is promising. Kennekijk is deze source wel intens want disticntly episodic en complex. Maar das okey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:30:04.129 -02:03:02.725 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5 km/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirk et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serp_31, 26, 14, 28, 30, 12,19,22, 24, 34, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krijgen reasonable angular resolution CO3-2 observations, released in augustus. Might be worth wating for. Deze hebben ook 2-1!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van deze zelfde bronnen, nu coordinate search, dan kom je ook op eHOPS CO3-2: hiervan is preview niet available  dus maybe beetje skeer, maar tis een optie maybe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusie: met serpens kan je een heel end komen, nu ff naar anderen kijken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perseus:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per_49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has 2-1 no 3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAS 4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is an outflow,  part of perseus cloud? Many different names, so go for coordinate search. Also called NGC1333_IRAS4C, perseus 14, per14 etc Has 3-2 in good res, has 2-1 but preview wont load so need to check. This is a very promising source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:29:13.548 +31:13:58.153 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has 2-1, 3-2 will be available in october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusions: IRAS4C = per14 is promising, de rest is pas in oktober available. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophiuchius:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_27, 23, 31, 16, 21, 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO3-2 in okey-ish resolution (not amazing). All of these sources have at least one 2-1 in better resolution. Also, this was just the name search. Now also for coordinates to see if there is some more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:26.700 -24:40:52.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now individual coordinate search for these sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also has CO1-0 in quality better than 3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No other CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also has CO1-0 in quality better than 3-2&gt; really clear outflows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusions: here you already have 9 nice sources. Only a shame CO3-2 is not amazing resolution, but we can work with it. Also 5 that have CO10 so thats nice. Now just need a quick check to see if we missed any ophiuchus sources. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">other sources in Ophiuchius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heeft 3-2 (wel noisy maar high res), heeft 2-1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:06.600 -24:41:48.804 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoAr_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heeft 3-2, heeft 2-1, a bit noisy, not sure if there really is a big outflow here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:26:23.678 -24:43:13.860 </t>
   </si>
 </sst>
 </file>
@@ -179,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +585,21 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +608,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7D1D5"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="FF8E86AE"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FFAFD095"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -251,7 +677,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,12 +690,68 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -297,11 +779,11 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -322,15 +804,15 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF7D1D5"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF8E86AE"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -521,10 +1003,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -532,9 +1014,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -560,16 +1043,22 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
@@ -578,16 +1067,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,27 +1094,27 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>3.334</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
@@ -628,18 +1123,23 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="n">
@@ -649,22 +1149,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0.658</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,27 +1175,27 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0.067</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
@@ -704,16 +1204,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.354</v>
@@ -732,16 +1238,19 @@
       <c r="F10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>17</v>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>2</v>
@@ -750,16 +1259,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>-40</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,24 +1285,27 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>0.459</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>2</v>
@@ -796,16 +1314,22 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,22 +1340,25 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0.458</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -847,4 +1374,1031 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="37.55"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>-5.46</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="10" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="42.69"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/tables/chosen_transitions.xlsx
+++ b/tables/chosen_transitions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="196">
   <si>
     <t xml:space="preserve">Source</t>
   </si>
@@ -84,6 +84,66 @@
     <t xml:space="preserve">Csengeri, Timea</t>
   </si>
   <si>
+    <t xml:space="preserve">G328.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G328.25_B6_spw5_12M_spw5.JvM.image.pbcor.statcont.contsub_ALMAIMF_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62 X 0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X133d_X3488._G328.2551-0.5321_A__sci.spw27.cube.I.pbcor_CO32_res0.354.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cube looks ok, middle source is overcrowded with lines, contsub ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018.1.01679.S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G337.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G337.92_B6_spw5_12M_spw5.JvM.image.pbcor.statcont.contsub.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61 X 0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,11,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X12a2_X225._G337.9154-0.4773__sci.spw27.cube.I.pbcor_archive_CO32_res0.459.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cube looks good, source in middle overcrowded with lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longmore, Steven and many others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G338.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G338.93_B6_spw5_12M_spw5.JvM.image.pbcor.statcont.contsub.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56 X 0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,6,7, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X12a2_X225._G338.9188p0.5494__sci.spw27.cube.I.pbcor_archive_co32_res0.458.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,6,7,11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wienen et al. 2015?</t>
+  </si>
+  <si>
     <t xml:space="preserve">G351.77</t>
   </si>
   <si>
@@ -123,66 +183,6 @@
     <t xml:space="preserve">Beuther, Henrik</t>
   </si>
   <si>
-    <t xml:space="preserve">G328.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G328.25_B6_spw5_12M_spw5.JvM.image.pbcor.statcont.contsub_ALMAIMF_CO21.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62 X 0.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X133d_X3488._G328.2551-0.5321_A__sci.spw27.cube.I.pbcor_CO32_res0.354.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cube looks ok, middle source is overcrowded with lines, contsub ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018.1.01679.S </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G337.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G337.92_B6_spw5_12M_spw5.JvM.image.pbcor.statcont.contsub.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61 X 0.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,11,12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X12a2_X225._G337.9154-0.4773__sci.spw27.cube.I.pbcor_archive_CO32_res0.459.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cube looks good, source in middle overcrowded with lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longmore, Steven and many others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G338.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G338.93_B6_spw5_12M_spw5.JvM.image.pbcor.statcont.contsub.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56 X 0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,6,7, 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X12a2_X225._G338.9188p0.5494__sci.spw27.cube.I.pbcor_archive_co32_res0.458.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,6,7,11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wienen et al. 2015?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coordinates</t>
   </si>
   <si>
@@ -192,6 +192,15 @@
     <t xml:space="preserve">Alternative source name</t>
   </si>
   <si>
+    <t xml:space="preserve">Linkies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oph_12</t>
   </si>
   <si>
@@ -207,7 +216,13 @@
     <t xml:space="preserve">Vd Marel et al. 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">Wl 12, GY111, 162644-24345, J162644.-2434481</t>
+    <t xml:space="preserve">Wl 12, GY111, 162644-24345, J162644.-2434481, VSSG 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1;10.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.2;1.9</t>
   </si>
   <si>
     <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_12_sci.spw33.cube.I.pbcor_CO21.fits</t>
@@ -309,6 +324,12 @@
     <t xml:space="preserve">Irs_43, 162727-24405</t>
   </si>
   <si>
+    <t xml:space="preserve">4.3;11.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.3;1.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_26_sci.spw33.cube.I.pbcor_CO21.fits</t>
   </si>
   <si>
@@ -330,6 +351,12 @@
     <t xml:space="preserve">IRS_44, 162728-24393</t>
   </si>
   <si>
+    <t xml:space="preserve">5.9;11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10;1.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_27_sci.spw33.cube.I.pbcor_CO21.fits</t>
   </si>
   <si>
@@ -348,6 +375,12 @@
     <t xml:space="preserve">Ik DENK Elias 33, coordinaten komen wel ong overeen</t>
   </si>
   <si>
+    <t xml:space="preserve">5;8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6;1.25</t>
+  </si>
+  <si>
     <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_29_sci.spw33.cube.I.pbcor_CO21.fits</t>
   </si>
   <si>
@@ -366,10 +399,16 @@
     <t xml:space="preserve">IRS51&gt; not in vd Marel.</t>
   </si>
   <si>
+    <t xml:space="preserve">4.5;9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1;1</t>
+  </si>
+  <si>
     <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_31_sci.spw33.cube.I.pbcor_CO21.fits</t>
   </si>
   <si>
-    <t xml:space="preserve">YWL 45 DENK IK</t>
+    <t xml:space="preserve">YWL 45 maybe</t>
   </si>
   <si>
     <t xml:space="preserve">https://simbad.u-strasbg.fr/simbad/sim-id?Ident=YLW+45&amp;NbIdent=1&amp;Radius=2&amp;Radius.unit=arcmin&amp;submit=submit+id</t>
@@ -378,6 +417,9 @@
     <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_31_sci.spw30.cube.I.pbcor_CO32.fits</t>
   </si>
   <si>
+    <t xml:space="preserve">I think the V_lsr is wrong/ wrong protostar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oph_34</t>
   </si>
   <si>
@@ -390,6 +432,12 @@
     <t xml:space="preserve">IRS 63</t>
   </si>
   <si>
+    <t xml:space="preserve">3;7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9;0.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_34_sci.spw33.cube.I.pbcor_CO21.fits</t>
   </si>
   <si>
@@ -421,6 +469,15 @@
   </si>
   <si>
     <t xml:space="preserve">WLY 2-67 denk ik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5;11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5;2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong???</t>
   </si>
   <si>
     <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_39_sci.spw30.cube.I.pbcor_CO32.fits</t>
@@ -599,7 +656,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +685,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -677,7 +740,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -694,35 +757,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -730,11 +781,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -742,15 +789,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1006,7 +1057,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1112,90 +1163,64 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.658</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>0.354</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
@@ -1204,19 +1229,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>16</v>
@@ -1230,27 +1255,27 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>2</v>
+        <v>0.459</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>2</v>
@@ -1259,19 +1284,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>-40</v>
+        <v>-62</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>16</v>
@@ -1285,82 +1310,111 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="E18" s="1" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="H18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E19" s="1" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>-62</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="I19" s="3" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1381,20 +1435,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O35" activeCellId="0" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="37.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="35.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,638 +1486,711 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>1.926</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="I2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>4.3</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>61</v>
+      <c r="K2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="C3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>-5.46</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1.088</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="J15" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="n">
+      <c r="L15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="7" t="n">
+      <c r="D17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="11" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="1" t="n">
         <v>3.023</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1.088</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="I37" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1.086</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1.086</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>-5.46</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>2.189</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1.907</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1.907</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="7" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="10" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1.084</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2101,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2120,275 +2248,275 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>140</v>
+      <c r="A4" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>145</v>
+      <c r="A5" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>152</v>
+      <c r="A11" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>161</v>
+      <c r="A17" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>56</v>
+      <c r="A25" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
-        <v>104</v>
+      <c r="A26" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>118</v>
+      <c r="A27" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
-        <v>127</v>
+      <c r="A28" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
-        <v>171</v>
+      <c r="A32" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tables/chosen_transitions.xlsx
+++ b/tables/chosen_transitions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="196">
   <si>
     <t xml:space="preserve">Source</t>
   </si>
@@ -237,6 +237,180 @@
     <t xml:space="preserve">2022.1.00236.S</t>
   </si>
   <si>
+    <t xml:space="preserve">Oph_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:26.900 -24:40:50.000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162727-24405_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irs_43, 162727-24405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3;11.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.3;1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_26_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_26_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:27.900 -24:39:33.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162728-24393_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013.1.00187.S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS_44, 162728-24393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9;11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10;1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_27_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_27_sci.spw30.cube.I.pbcor_CO43.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:30.100 -24:27:43.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162729-24274_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik DENK Elias 33, coordinaten komen wel ong overeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5;8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6;1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_29_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_29_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:27:39.900 -24:43:13.200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162740-24431_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS51&gt; not in vd Marel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5;9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_31_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7 pm 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simbad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YWL 45 maybe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://simbad.u-strasbg.fr/simbad/sim-id?Ident=YLW+45&amp;NbIdent=1&amp;Radius=2&amp;Radius.unit=arcmin&amp;submit=submit+id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_31_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_lsr was defined by hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:31:35.600 -24:01:29.000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.163136-24013_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3;7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9;0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_34_sci.spw33.cube.I.pbcor_CO21.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.1.01792.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X133d_X3322.IRS_63_sci.spw25.cube.I.pbcor_CO32_res0.7arcsec.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different res from the others, here 1-0 is limiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018.1.01634.S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oph_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:32:00.900 -24:56:42.000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.163201-24564_sci.spw0_115262MHz.12m.cube.I.pbcor_CO10.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 pm 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortiz-Leon et al. 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WLY 2-67 denk ik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5;11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5;2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_39_sci.spw30.cube.I.pbcor_CO32.fits</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oph_16</t>
   </si>
   <si>
@@ -300,9 +474,6 @@
     <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_23_sci.spw33.cube.I.pbcor_CO21.fits</t>
   </si>
   <si>
-    <t xml:space="preserve">Simbad</t>
-  </si>
-  <si>
     <t xml:space="preserve">YLW 13B</t>
   </si>
   <si>
@@ -310,177 +481,6 @@
   </si>
   <si>
     <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_23_sci.spw30.cube.I.pbcor_CO32.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oph_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:27:26.900 -24:40:50.000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162727-24405_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irs_43, 162727-24405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3;11.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.3;1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_26_sci.spw33.cube.I.pbcor_CO21.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_26_sci.spw30.cube.I.pbcor_CO32.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oph_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:27:27.900 -24:39:33.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162728-24393_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013.1.00187.S </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRS_44, 162728-24393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9;11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10;1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_27_sci.spw33.cube.I.pbcor_CO21.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_27_sci.spw30.cube.I.pbcor_CO43.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oph_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:27:30.100 -24:27:43.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162729-24274_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ik DENK Elias 33, coordinaten komen wel ong overeen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5;8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6;1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_29_sci.spw33.cube.I.pbcor_CO21.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_29_sci.spw30.cube.I.pbcor_CO32.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oph_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:27:39.900 -24:43:13.200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162740-24431_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRS51&gt; not in vd Marel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5;9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_31_sci.spw33.cube.I.pbcor_CO21.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YWL 45 maybe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://simbad.u-strasbg.fr/simbad/sim-id?Ident=YLW+45&amp;NbIdent=1&amp;Radius=2&amp;Radius.unit=arcmin&amp;submit=submit+id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_31_sci.spw30.cube.I.pbcor_CO32.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think the V_lsr is wrong/ wrong protostar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oph_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:31:35.600 -24:01:29.000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.163136-24013_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRS 63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3;7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9;0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X1465_X13c.Oph_34_sci.spw33.cube.I.pbcor_CO21.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019.1.01792.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X133d_X3322.IRS_63_sci.spw25.cube.I.pbcor_CO32_res0.7arcsec.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Different res from the others, here 1-0 is limiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018.1.01634.S </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oph_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:32:00.900 -24:56:42.000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.163201-24564_sci.spw0_115262MHz.12m.cube.I.pbcor_CO10.fits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41 plusmin 0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortiz-Leon et al. 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WLY 2-67 denk ik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5;11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5;2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrong???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member.uid___A001_x005F_X2d20_X335c.Oph_39_sci.spw30.cube.I.pbcor_CO32.fits</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -619,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,19 +644,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,12 +679,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
         <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -740,7 +728,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -765,6 +753,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -773,23 +769,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -797,11 +777,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1437,8 +1413,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O35" activeCellId="0" sqref="O35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1572,591 +1548,475 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1.088</v>
-      </c>
-      <c r="H6" s="7" t="s">
+        <v>2.189</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="N6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="O6" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="F8" s="1" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="n">
+      <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <v>1.086</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="F10" s="1" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J10" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1" t="n">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="F12" s="1" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="F14" s="1" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>1.086</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="E15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>-5.46</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>2.189</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F19" s="3" t="n">
         <v>1.085</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="J19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>1.907</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="1" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F22" s="1" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O22" s="9"/>
+      <c r="N22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="C23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1.907</v>
+        <v>1.085</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>1.085</v>
+        <v>128</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>3.023</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="11" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="3" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="1" t="n">
         <v>2</v>
       </c>
@@ -2164,16 +2024,25 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1.084</v>
+        <v>1.088</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="J36" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="L36" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>3.023</v>
@@ -2193,6 +2062,122 @@
         <v>70</v>
       </c>
     </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>-5.46</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2277,7 +2262,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2294,7 +2279,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2325,7 +2310,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2362,7 +2347,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>180</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2378,73 +2363,73 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>104</v>
+      <c r="A19" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>185</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>186</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>121</v>
+      <c r="A21" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>71</v>
+      <c r="A22" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>186</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>79</v>
+      <c r="A23" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>186</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>96</v>
+      <c r="A24" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2455,36 +2440,36 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>113</v>
+      <c r="A26" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>132</v>
+      <c r="A27" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>143</v>
+      <c r="A28" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,7 +2483,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>190</v>
       </c>
       <c r="B32" s="1" t="s">

--- a/tables/chosen_transitions.xlsx
+++ b/tables/chosen_transitions.xlsx
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tables/chosen_transitions.xlsx
+++ b/tables/chosen_transitions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="High mass" sheetId="1" state="visible" r:id="rId3"/>
@@ -321,7 +321,7 @@
     <t xml:space="preserve">member.uid___A001_X145_Xb4.ari_l.162740-24431_sci.spw0_115261MHz.12m.cube.I.pbcor_CO10.fits</t>
   </si>
   <si>
-    <t xml:space="preserve">IRS51&gt; not in vd Marel.</t>
+    <t xml:space="preserve">IRS51&gt; not in vd Marel, in Jorgensen but no outflow</t>
   </si>
   <si>
     <t xml:space="preserve">4.5;9</t>
@@ -399,7 +399,7 @@
     <t xml:space="preserve">Ortiz-Leon et al. 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">WLY 2-67 denk ik</t>
+    <t xml:space="preserve">WLY 2-67=ISO-Oph 209, in jorgensen but not the outflow</t>
   </si>
   <si>
     <t xml:space="preserve">4.5;11</t>
@@ -1032,8 +1032,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1413,8 +1413,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1935,7 +1935,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>120</v>
       </c>
